--- a/TP3/Relatorio/neighbors.xlsx
+++ b/TP3/Relatorio/neighbors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a47507_alunos_isel_pt/Documents/Semestre 5/RI/ri-repo/TP3/Relatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="8_{04F4EC8A-C2D8-4E85-B9B8-A0E6C56B9D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{160E1772-63B4-4E8B-9F76-C847E473806D}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="8_{04F4EC8A-C2D8-4E85-B9B8-A0E6C56B9D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A28A2F-6F70-4B8F-B503-020D34062151}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F2AB054A-52CB-47BA-8177-EF1C32D43014}"/>
+    <workbookView minimized="1" xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{F2AB054A-52CB-47BA-8177-EF1C32D43014}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,7 +462,9 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -532,19 +534,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,18 +885,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509A009E-505A-4D29-A5C8-3ADCFC9505E1}">
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="11.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" customHeight="1">
+    <row r="2" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -908,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="21" customHeight="1">
+    <row r="3" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
@@ -922,7 +924,7 @@
         <v>17390</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="21" customHeight="1">
+    <row r="4" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
@@ -936,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21" customHeight="1">
+    <row r="5" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
@@ -950,7 +952,7 @@
         <v>17390</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="21" customHeight="1">
+    <row r="6" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
@@ -964,7 +966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="21" customHeight="1">
+    <row r="7" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -978,7 +980,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="21" customHeight="1">
+    <row r="8" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
@@ -992,8 +994,8 @@
         <v>5511</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="21" customHeight="1">
-      <c r="B9" s="20"/>
+    <row r="9" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="21" customHeight="1">
+    <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="9" t="s">
         <v>21</v>
@@ -1016,8 +1018,8 @@
         <v>20717</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="21" customHeight="1">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1030,8 +1032,8 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="21" customHeight="1">
-      <c r="B12" s="20"/>
+    <row r="12" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1042,7 +1044,7 @@
         <v>64513</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="21" customHeight="1">
+    <row r="13" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
         <v>14</v>
@@ -1054,8 +1056,8 @@
         <v>701</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="21" customHeight="1">
-      <c r="B14" s="24" t="s">
+    <row r="14" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1068,7 +1070,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="21" customHeight="1">
+    <row r="15" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
         <v>24</v>
@@ -1080,7 +1082,7 @@
         <v>64513</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="21" customHeight="1">
+    <row r="16" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1096,7 @@
         <v>17390</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="21" customHeight="1">
+    <row r="17" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
         <v>5</v>
@@ -1106,7 +1108,7 @@
         <v>17390</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="21" customHeight="1">
+    <row r="18" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>31</v>
       </c>
@@ -1120,7 +1122,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="21" customHeight="1">
+    <row r="19" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
         <v>21</v>
@@ -1132,7 +1134,7 @@
         <v>20717</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="21" customHeight="1">
+    <row r="20" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>23344</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="21" customHeight="1">
+    <row r="21" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="21" customHeight="1">
+    <row r="22" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>5511</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="21" customHeight="1">
+    <row r="23" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>14</v>
       </c>
@@ -1188,8 +1190,8 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="21" customHeight="1">
-      <c r="B24" s="20"/>
+    <row r="24" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
       <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1202,7 @@
         <v>17390</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="21" customHeight="1">
+    <row r="25" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
         <v>19</v>
@@ -1212,7 +1214,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="21" customHeight="1">
+    <row r="26" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>19</v>
       </c>
@@ -1226,8 +1228,8 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="21" customHeight="1">
-      <c r="B27" s="20"/>
+    <row r="27" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22"/>
       <c r="C27" s="7" t="s">
         <v>31</v>
       </c>
@@ -1238,8 +1240,8 @@
         <v>5511</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="21" customHeight="1">
-      <c r="B28" s="20"/>
+    <row r="28" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="22"/>
       <c r="C28" s="7" t="s">
         <v>14</v>
       </c>
@@ -1250,7 +1252,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="21" customHeight="1">
+    <row r="29" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
         <v>45</v>
@@ -1262,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="21" customHeight="1">
+    <row r="30" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>21</v>
       </c>
@@ -1276,8 +1278,8 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="21" customHeight="1">
-      <c r="B31" s="22"/>
+    <row r="31" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="24"/>
       <c r="C31" s="18" t="s">
         <v>31</v>
       </c>
